--- a/ExcelCake.Example.Core/Template/复杂格式测试模板(新语法).xlsx
+++ b/ExcelCake.Example.Core/Template/复杂格式测试模板(新语法).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7676AA3B-3EB2-4E10-ADCB-1B04D371FD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508"/>
+    <workbookView xWindow="5130" yWindow="3980" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>语文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,86 +53,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    {Type:Grid;DataSource:List1;AddressLeftTop:A5;AddressRightBottom:G5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Type:Grid;DataSource:List2;AddressLeftTop:H5;AddressRightBottom:N5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Type:Value;Field:ClassName}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>班级总成绩分布{Type:Grid;DataSource:List3;AddressLeftTop:A8;AddressRightBottom:N8}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{Type:Value;Field:ClassName}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Type:Value;Field:PassCountSubject1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Type:Value;Field:PassCountSubject2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Type:Value;Field:PassCountSubject3}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Type:Value;Field:PassCountSubject4}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Type:Value;Field:PassCountSubject5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Type:Value;Field:ScoreAvgSubject1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Type:Value;Field:ScoreAvgSubject2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Type:Value;Field:ScoreAvgSubject3}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Type:Value;Field:ScoreAvgSubject4}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Type:Value;Field:ScoreAvgSubject5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Type:Value;Field:ScoreTotalMax}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Type:Value;Field:ScoreTotalAvg}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Type:Value;Field:ScoreTotalPassRate}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Type:Free;DataSource:;AddressLeftTop:A1;AddressRightBottom:N2}{Type:Value;Field:ReportTitle}</t>
+    <t>{Data:;LT:A1;RB:N2}{@ReportTitle}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{@ClassName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{@ScoreTotalMax}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{@ScoreTotalAvg}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{@ScoreTotalPassRate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{@PassCountSubject1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{@PassCountSubject2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{@PassCountSubject3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{@PassCountSubject4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{@PassCountSubject5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{@ScoreAvgSubject1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{@ScoreAvgSubject2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{@ScoreAvgSubject3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{@ScoreAvgSubject4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{@ScoreAvgSubject5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    {List:List1;LT:A5;RB:G5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    {List:List2;LT:H5;RB:N5}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -166,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -198,24 +195,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -224,6 +244,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -260,7 +289,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直接连接符 4"/>
+        <xdr:cNvPr id="5" name="直接连接符 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -304,7 +339,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直接连接符 6"/>
+        <xdr:cNvPr id="7" name="直接连接符 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -343,7 +384,13 @@
     <xdr:ext cx="466794" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="文本框 7"/>
+        <xdr:cNvPr id="8" name="文本框 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -395,7 +442,13 @@
     <xdr:ext cx="748923" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="文本框 8"/>
+        <xdr:cNvPr id="9" name="文本框 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -447,7 +500,13 @@
     <xdr:ext cx="466794" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="文本框 9"/>
+        <xdr:cNvPr id="10" name="文本框 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -504,7 +563,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直接连接符 10"/>
+        <xdr:cNvPr id="11" name="直接连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -548,7 +613,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直接连接符 11"/>
+        <xdr:cNvPr id="12" name="直接连接符 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -587,7 +658,13 @@
     <xdr:ext cx="466794" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="文本框 12"/>
+        <xdr:cNvPr id="13" name="文本框 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -639,7 +716,13 @@
     <xdr:ext cx="748923" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="文本框 13"/>
+        <xdr:cNvPr id="14" name="文本框 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -691,7 +774,13 @@
     <xdr:ext cx="466794" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="文本框 14"/>
+        <xdr:cNvPr id="15" name="文本框 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -737,9 +826,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -777,9 +866,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -814,7 +903,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -849,7 +938,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1022,217 +1111,225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
+      <c r="H3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4" t="s">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="I8:K8"/>
@@ -1249,18 +1346,28 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="A6:N6"/>
     <mergeCell ref="A3:B4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A8" r:id="rId1" xr:uid="{41BD9C7A-6AA9-4C0E-B715-59DC5E237626}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{F973E3C3-0B51-4540-96F2-A849E6399736}"/>
+    <hyperlink ref="I8" r:id="rId3" xr:uid="{AEE29237-2419-4357-AAEB-4E05B16B8237}"/>
+    <hyperlink ref="L8" r:id="rId4" xr:uid="{331CFD22-2ACF-4E3E-BD3C-63E193AEDEAA}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{2FD2336C-CBD9-4EC4-AB50-6602CD6F14CC}"/>
+    <hyperlink ref="D5" r:id="rId6" xr:uid="{AF28BD28-6B7A-42A7-AAD7-984B05A4EA16}"/>
+    <hyperlink ref="E5" r:id="rId7" xr:uid="{8DAD90B1-D884-4D3C-9FE1-2D8DCCA1C1B4}"/>
+    <hyperlink ref="F5" r:id="rId8" xr:uid="{288A07DC-733E-409C-9A29-A13FEC7EB3FF}"/>
+    <hyperlink ref="G5" r:id="rId9" xr:uid="{B2C95806-6A40-4DA7-BEDC-CB233C705662}"/>
+    <hyperlink ref="H5" r:id="rId10" xr:uid="{30353A07-F26D-48F6-9CC2-D0A197ECFD24}"/>
+    <hyperlink ref="J5" r:id="rId11" xr:uid="{0F218DA3-48E6-4996-B756-A23CA8A12AC4}"/>
+    <hyperlink ref="K5" r:id="rId12" xr:uid="{C07197DB-F3B9-44C5-AA82-0171A996050F}"/>
+    <hyperlink ref="L5" r:id="rId13" xr:uid="{9A210E21-FB10-4736-9423-A094DFC5AFC8}"/>
+    <hyperlink ref="M5" r:id="rId14" xr:uid="{A56684DA-370B-4AA3-96C6-CBA6578EFF3B}"/>
+    <hyperlink ref="N5" r:id="rId15" xr:uid="{5B03CDC9-C4FA-46F4-AB4F-21B32980A929}"/>
+    <hyperlink ref="A5" r:id="rId16" xr:uid="{50C34CBA-C62E-4547-AFCA-3C2012E940D0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>